--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Olga Arango.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Olga Arango.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t xml:space="preserve">Fecha de Pago</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t xml:space="preserve">30/11/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fondo - Rifa</t>
   </si>
   <si>
     <t xml:space="preserve">Fondo - Ahorro</t>
@@ -2037,7 +2034,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="n">
-        <v>-80000</v>
+        <v>-50000</v>
       </c>
       <c r="L41" s="1"/>
     </row>
@@ -2059,7 +2056,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="n">
-        <v>-50000</v>
+        <v>-80000</v>
       </c>
       <c r="L42" s="1"/>
     </row>
@@ -2081,7 +2078,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="n">
-        <v>-80000</v>
+        <v>-125000</v>
       </c>
       <c r="L43" s="1"/>
     </row>
@@ -2103,7 +2100,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="n">
-        <v>-125000</v>
+        <v>-25000</v>
       </c>
       <c r="L44" s="1"/>
     </row>
@@ -2125,7 +2122,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="n">
-        <v>-25000</v>
+        <v>-16512</v>
       </c>
       <c r="L45" s="1"/>
     </row>
@@ -2147,7 +2144,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="n">
-        <v>-16512</v>
+        <v>-46534</v>
       </c>
       <c r="L46" s="1"/>
     </row>
@@ -2169,13 +2166,13 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="n">
-        <v>-46534</v>
+        <v>-29453</v>
       </c>
       <c r="L47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
@@ -2191,17 +2188,17 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="n">
-        <v>-29453</v>
+        <v>-15000</v>
       </c>
       <c r="L48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
@@ -2217,28 +2214,6 @@
       </c>
       <c r="L49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1" t="n">
-        <v>-15000</v>
-      </c>
-      <c r="L50" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Olga Arango.xlsx
+++ b/3. Resultados/2. reporte_de_ventas_NOV_16_30 - NOMINA/Olga Arango.xlsx
@@ -251,7 +251,7 @@
     <t xml:space="preserve">Fondo - Ahorro</t>
   </si>
   <si>
-    <t xml:space="preserve">Descuento - Anticipo - 8 Boletas rifa</t>
+    <t xml:space="preserve">Fondo - Rifa - 8 Boletas rifa</t>
   </si>
   <si>
     <t xml:space="preserve">Fondo - Préstamo - 3 cuota</t>
